--- a/sitetool/src/main/resources/ExcelTemplate/HostReportTemplate.xlsx
+++ b/sitetool/src/main/resources/ExcelTemplate/HostReportTemplate.xlsx
@@ -362,7 +362,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -470,6 +470,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -479,19 +490,67 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -501,33 +560,51 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -537,77 +614,14 @@
     <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2691,47 +2705,47 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9" style="7"/>
+    <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="24" spans="1:9" s="3" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:9" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A24" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
     </row>
-    <row r="25" spans="1:9" s="3" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:9" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A25" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
     </row>
-    <row r="38" spans="1:9" s="3" customFormat="1" ht="22.2" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+    <row r="38" spans="1:9" s="1" customFormat="1" ht="22.2" x14ac:dyDescent="0.25">
+      <c r="A38" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
     </row>
     <row r="43" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -2752,243 +2766,249 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="23.77734375" style="9" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" style="9" customWidth="1"/>
-    <col min="6" max="6" width="23.44140625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" style="9" customWidth="1"/>
-    <col min="8" max="8" width="17.88671875" style="24" customWidth="1"/>
-    <col min="9" max="9" width="12.77734375" style="9" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="9"/>
+    <col min="1" max="2" width="23.77734375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="17.88671875" style="8" customWidth="1"/>
+    <col min="9" max="9" width="12.77734375" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
     </row>
-    <row r="3" spans="1:8" s="14" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:8" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="39" t="s">
+      <c r="D3" s="36"/>
+      <c r="E3" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="40"/>
-      <c r="G3" s="13" t="s">
+      <c r="F3" s="25"/>
+      <c r="G3" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="13"/>
+      <c r="H3" s="37"/>
     </row>
     <row r="4" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="15" t="s">
+      <c r="D4" s="39"/>
+      <c r="E4" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="F4" s="31"/>
+      <c r="G4" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="18"/>
+      <c r="H4" s="40"/>
     </row>
-    <row r="5" spans="1:8" s="14" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+    <row r="5" spans="1:8" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A5" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="43"/>
     </row>
-    <row r="6" spans="1:8" s="24" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+    <row r="6" spans="1:8" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="23"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="28"/>
     </row>
     <row r="7" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="26" t="s">
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="27"/>
+      <c r="H7" s="31"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
     </row>
-    <row r="12" spans="1:8" s="14" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
+    <row r="12" spans="1:8" s="5" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="33"/>
-      <c r="H12" s="34"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="11"/>
+      <c r="H12" s="12"/>
     </row>
-    <row r="24" spans="1:11" s="14" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A24" s="42" t="s">
+    <row r="24" spans="1:11" s="5" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="H24" s="34"/>
+      <c r="H24" s="12"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="30"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
     </row>
-    <row r="27" spans="1:11" s="37" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="35" t="s">
+    <row r="27" spans="1:11" s="15" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="41" t="s">
+      <c r="C27" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="41" t="s">
+      <c r="D27" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="41" t="s">
+      <c r="E27" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F27" s="41" t="s">
+      <c r="F27" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="G27" s="41" t="s">
+      <c r="G27" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="H27" s="41" t="s">
+      <c r="H27" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="18">
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="E4:F4"/>
     <mergeCell ref="A10:H11"/>
     <mergeCell ref="A25:H26"/>
     <mergeCell ref="E3:F3"/>
@@ -2998,16 +3018,13 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:H9"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="G4:H4"/>
     <mergeCell ref="A5:H5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="50" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>